--- a/raw data mahasiswa TA.xlsx
+++ b/raw data mahasiswa TA.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbee3ff0ebd21f1/simta application/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbee3ff0ebd21f1/simta application/simta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{C47286E6-9D59-4442-BDF2-370039EB5D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61873BED-5AA3-4824-A9CB-92C5E46727C6}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="8_{C47286E6-9D59-4442-BDF2-370039EB5D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A11136D-C1C9-4C9E-B26F-504C06C56E1F}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="14400" windowHeight="7270" firstSheet="1" activeTab="2" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9D7D56C9-3BFC-42AD-8CDB-4B7184614D5D}"/>
   </bookViews>
   <sheets>
-    <sheet name="gj2122" sheetId="5" r:id="rId1"/>
-    <sheet name="gn2122" sheetId="1" r:id="rId2"/>
-    <sheet name="gj2223" sheetId="4" r:id="rId3"/>
+    <sheet name="2018" sheetId="1" r:id="rId1"/>
+    <sheet name="2019" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -674,69 +673,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D7522E-D5D3-4681-9841-8E1B89C918B6}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0C04BC-3A4A-434F-A90D-58F891400D4A}">
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A3:XFD17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3">
-        <v>1204181014</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
-        <v>1204181023</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0C04BC-3A4A-434F-A90D-58F891400D4A}">
-  <dimension ref="A1:E27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -751,112 +692,112 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
-        <v>1204180002</v>
+        <v>1204181014</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
-        <v>1204180003</v>
+        <v>1204181023</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>1204180006</v>
+        <v>1204180002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
-        <v>1204180007</v>
+        <v>1204180003</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>1204180009</v>
+        <v>1204180006</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
-        <v>1204180013</v>
+        <v>1204180007</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>1204180016</v>
+        <v>1204180009</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
@@ -865,49 +806,49 @@
         <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
-        <v>1204180024</v>
+        <v>1204180013</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>1204180026</v>
+        <v>1204180016</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
-        <v>1204180027</v>
+        <v>1204180024</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1</v>
@@ -916,38 +857,38 @@
         <v>38</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>1204180029</v>
+        <v>1204180026</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
-        <v>1204180031</v>
+        <v>1204180027</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>36</v>
@@ -955,246 +896,280 @@
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>1204181004</v>
+        <v>1204180029</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
-        <v>1204181008</v>
+        <v>1204180031</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>1204181011</v>
+        <v>1204181004</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>1204181008</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
-        <v>1204181021</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>36</v>
+      <c r="E16" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <v>1204181028</v>
+        <v>1204181011</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="4">
-        <v>1204183030</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="A18" s="1">
+        <v>1204181021</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>38</v>
+      <c r="E18" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>1204180005</v>
+        <v>1204181028</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
+        <v>1204183030</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3">
-        <v>1204180015</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <v>1204180017</v>
+        <v>1204180005</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
-        <v>1204180018</v>
+        <v>1204180015</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <v>1204180019</v>
+        <v>1204180017</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
-        <v>1204180020</v>
+        <v>1204180018</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <v>1204180022</v>
+        <v>1204180019</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
-        <v>1204180010</v>
+        <v>1204180020</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <v>1204180012</v>
+        <v>1204180022</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="3">
+        <v>1204180010</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>1204180012</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1202,12 +1177,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DA9CFB-FAF5-435B-A6CD-1B186F37DDD2}">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
